--- a/mapping/ENVO_OSMO.xlsx
+++ b/mapping/ENVO_OSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>ENVO_IRI</t>
   </si>
@@ -26,13 +26,103 @@
   </si>
   <si>
     <t>OSMO_DESC</t>
+  </si>
+  <si>
+    <t>OSMO_DEF</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000785</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03000043</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03000010</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03000009</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03000016</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001510</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001274</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01003013</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001348</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001349</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001612</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001615</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001644</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01000785'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03000043'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03000010'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03000009'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_03000016'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001510'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001274'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01003013'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001348'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001349'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001612'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001615'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'ENVO_01001644'}</t>
+  </si>
+  <si>
+    <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#material</t>
+  </si>
+  <si>
+    <t>{'name': 'material'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +137,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,16 +178,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +505,299 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2" location="material"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4" location="material"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6" location="material"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8" location="material"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10" location="material"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12" location="material"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14" location="material"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16" location="material"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18" location="material"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20" location="material"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22" location="material"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24" location="material"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26" location="material"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>